--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>パンフ合計</t>
     <rPh sb="3" eb="5">
@@ -251,6 +251,50 @@
     <rPh sb="2" eb="3">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＢＡＤＢＯＹ’Ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドサン東</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見附ブレイブアローズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼垂鏡太</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼田シリウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上越南ミニバス教室</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上川西ミニバスクラブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上組こだまキッズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>槻の森ユナイターズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内野オールスターズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半田JSCミニバスケットボール部</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -883,7 +927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,8 +1087,95 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,9 +1192,6 @@
     <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,93 +1203,6 @@
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1547,148 +1588,174 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="60" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="56" t="s">
+      <c r="K4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="56" t="s">
+      <c r="M4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="83" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="29" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="55"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="84"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10</v>
+      </c>
       <c r="I6" s="1">
         <f>SUM(G6:H6)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:J11" si="0">I6*500</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="1"/>
+        <v>11000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
+      </c>
       <c r="L6" s="6">
         <f t="shared" ref="L6:L16" si="1">K6*200</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>2000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
       <c r="N6" s="6">
         <f>M6*4000</f>
         <v>0</v>
       </c>
       <c r="O6" s="25">
         <f>SUM(F6,J6,L6,N6)</f>
-        <v>5000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
       <c r="I7" s="1">
         <f>SUM(G7:H7)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
       <c r="L7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>2000</v>
+      </c>
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
       <c r="N7" s="6">
         <f t="shared" ref="N7:N16" si="2">M7*4000</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="O7" s="25">
         <f>SUM(F7,J7,L7,N7)</f>
-        <v>5000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
       <c r="I8" s="1">
         <f t="shared" ref="I8:I18" si="3">SUM(G8:H8)</f>
         <v>0</v>
@@ -1697,162 +1764,206 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>17</v>
+      </c>
       <c r="L8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>3400</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
       <c r="N8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O17" si="4">SUM(F8,J8,L8,N8)</f>
-        <v>5000</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
+      <c r="B9" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1">
+        <v>13</v>
+      </c>
       <c r="I9" s="1">
         <f>SUM(G9:H9)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>12500</v>
+      </c>
+      <c r="K9" s="1">
+        <v>21</v>
+      </c>
       <c r="L9" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>4200</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
       <c r="N9" s="6">
         <f>M9*4000</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="O9" s="25">
         <f>SUM(F9,J9,L9,N9)</f>
-        <v>5000</v>
+        <v>25700</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>13</v>
+      </c>
       <c r="I10" s="1">
         <f>SUM(G10:H10)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>6500</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
       <c r="L10" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>2000</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
       <c r="N10" s="6">
         <f>M10*4000</f>
         <v>0</v>
       </c>
       <c r="O10" s="25">
         <f>SUM(F10,J10,L10,N10)</f>
-        <v>5000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
+      <c r="B11" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="1">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18</v>
+      </c>
       <c r="I11" s="1">
         <f>SUM(G11:H11)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>17500</v>
+      </c>
+      <c r="K11" s="1">
+        <v>13</v>
+      </c>
       <c r="L11" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1"/>
+        <v>2600</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
       <c r="N11" s="6">
         <f>M11*4000</f>
         <v>0</v>
       </c>
       <c r="O11" s="25">
         <f>SUM(F11,J11,L11,N11)</f>
-        <v>5000</v>
+        <v>25100</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
+      <c r="B12" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1">
         <f t="shared" ref="I12:I13" si="5">SUM(G12:H12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <f>I12*500</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="1"/>
+        <f t="shared" ref="J12:J18" si="6">I12*500</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
       <c r="L12" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="53"/>
+      <c r="M12" s="31">
+        <v>0</v>
+      </c>
       <c r="N12" s="6">
-        <f t="shared" ref="N12:N13" si="6">M12*4000</f>
+        <f t="shared" ref="N12:N13" si="7">M12*4000</f>
         <v>0</v>
       </c>
       <c r="O12" s="25">
-        <f t="shared" ref="O12:O13" si="7">SUM(F12,J12,L12,N12)</f>
+        <f t="shared" ref="O12:O13" si="8">SUM(F12,J12,L12,N12)</f>
         <v>5000</v>
       </c>
     </row>
@@ -1860,191 +1971,239 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="B13" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
       <c r="I13" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <f>I13*500</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1"/>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>13</v>
+      </c>
       <c r="L13" s="6">
-        <f t="shared" ref="L13" si="8">K13*200</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="53"/>
+        <f t="shared" ref="L13" si="9">K13*200</f>
+        <v>2600</v>
+      </c>
+      <c r="M13" s="31">
+        <v>3</v>
+      </c>
       <c r="N13" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>12000</v>
       </c>
       <c r="O13" s="25">
-        <f t="shared" si="7"/>
-        <v>5000</v>
+        <f t="shared" si="8"/>
+        <v>19600</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="B14" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="G14" s="1">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1">
+        <v>8</v>
+      </c>
       <c r="I14" s="1">
-        <f t="shared" ref="I14:I15" si="9">SUM(G14:H14)</f>
-        <v>0</v>
+        <f t="shared" ref="I14:I15" si="10">SUM(G14:H14)</f>
+        <v>17</v>
       </c>
       <c r="J14" s="8">
-        <f>I14*500</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="1"/>
+        <f t="shared" si="6"/>
+        <v>8500</v>
+      </c>
+      <c r="K14" s="1">
+        <v>22</v>
+      </c>
       <c r="L14" s="6">
-        <f t="shared" ref="L14:L15" si="10">K14*200</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="53"/>
+        <f t="shared" ref="L14:L15" si="11">K14*200</f>
+        <v>4400</v>
+      </c>
+      <c r="M14" s="31">
+        <v>0</v>
+      </c>
       <c r="N14" s="6">
-        <f t="shared" ref="N14:N15" si="11">M14*4000</f>
+        <f t="shared" ref="N14:N15" si="12">M14*4000</f>
         <v>0</v>
       </c>
       <c r="O14" s="25">
-        <f t="shared" ref="O14:O15" si="12">SUM(F14,J14,L14,N14)</f>
-        <v>5000</v>
+        <f t="shared" ref="O14:O15" si="13">SUM(F14,J14,L14,N14)</f>
+        <v>17900</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
       <c r="I15" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="J15" s="8">
-        <f>I15*500</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="1"/>
+        <f t="shared" si="6"/>
+        <v>3500</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6</v>
+      </c>
       <c r="L15" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="53"/>
+        <f t="shared" si="11"/>
+        <v>1200</v>
+      </c>
+      <c r="M15" s="31">
+        <v>1</v>
+      </c>
       <c r="N15" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4000</v>
       </c>
       <c r="O15" s="25">
-        <f t="shared" si="12"/>
-        <v>5000</v>
+        <f t="shared" si="13"/>
+        <v>13700</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
+      <c r="B16" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
       <c r="I16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="8">
-        <f>I16*500</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="1"/>
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8</v>
+      </c>
       <c r="L16" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="53"/>
+        <v>1600</v>
+      </c>
+      <c r="M16" s="31">
+        <v>0</v>
+      </c>
       <c r="N16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="31"/>
       <c r="F17" s="32">
         <v>5000</v>
       </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
+      <c r="G17" s="33">
+        <v>24</v>
+      </c>
+      <c r="H17" s="31">
+        <v>29</v>
+      </c>
       <c r="I17" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J17" s="34">
-        <f>I17*500</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="33"/>
+        <f t="shared" si="6"/>
+        <v>26500</v>
+      </c>
+      <c r="K17" s="33">
+        <v>17</v>
+      </c>
       <c r="L17" s="6">
         <f>K17*200</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="52"/>
+        <v>3400</v>
+      </c>
+      <c r="M17" s="52">
+        <v>8</v>
+      </c>
       <c r="N17" s="6">
         <f>M17*4000</f>
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>66900</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="35"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37"/>
@@ -2054,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="38">
-        <f>I18*500</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K18" s="35"/>
@@ -2064,12 +2223,12 @@
       <c r="O18" s="26"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="89"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="39"/>
       <c r="F19" s="40">
         <f>SUM(F6:F18)</f>
@@ -2077,50 +2236,50 @@
       </c>
       <c r="G19" s="41">
         <f>SUM(G6:G18)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H19" s="41">
         <f>SUM(H6:H18)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I19" s="41">
         <f>SUM(G19:H19)</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="J19" s="42">
-        <f t="shared" ref="J19:O19" si="13">SUM(J6:J18)</f>
-        <v>0</v>
+        <f t="shared" ref="J19:O19" si="14">SUM(J6:J18)</f>
+        <v>88500</v>
       </c>
       <c r="K19" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>147</v>
       </c>
       <c r="L19" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>29400</v>
       </c>
       <c r="M19" s="20">
         <f>SUM(M6:M18)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N19" s="21">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>60000</v>
       </c>
       <c r="O19" s="21">
-        <f t="shared" si="13"/>
-        <v>60000</v>
+        <f t="shared" si="14"/>
+        <v>237900</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43">
         <v>4</v>
@@ -2139,29 +2298,29 @@
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" s="24" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="47"/>
       <c r="F21" s="48"/>
       <c r="G21" s="47">
         <f>G19*500</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="H21" s="47">
         <f>H19*500+2800</f>
-        <v>2800</v>
-      </c>
-      <c r="I21" s="92">
+        <v>51300</v>
+      </c>
+      <c r="I21" s="53">
         <f>SUM(I19:I20)</f>
-        <v>4</v>
+        <v>181</v>
       </c>
       <c r="J21" s="49">
         <f>SUM(J19:J20)</f>
-        <v>2800</v>
+        <v>91300</v>
       </c>
       <c r="K21" s="50"/>
       <c r="L21" s="23"/>
@@ -2170,18 +2329,18 @@
       <c r="O21" s="23"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="51">
         <v>16</v>
       </c>
@@ -2191,18 +2350,18 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="84" t="s">
+      <c r="A23" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="65"/>
       <c r="K23" s="27"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
@@ -2210,21 +2369,21 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="77"/>
+      <c r="A24" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="11"/>
@@ -2234,17 +2393,13 @@
     <row r="25" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2258,13 +2413,17 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -307,7 +307,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,15 +343,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -923,11 +914,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="6" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,7 +967,7 @@
     <xf numFmtId="5" fontId="4" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -988,12 +979,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="5" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1012,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,175 +1006,91 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="16" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="14" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="13" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="16" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="15" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1104,93 @@
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1550,7 +1538,7 @@
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
-      <c r="N1" s="30"/>
+      <c r="N1" s="28"/>
       <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1559,7 +1547,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="17"/>
@@ -1588,72 +1576,72 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="88" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="90" t="s">
+      <c r="J4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="85" t="s">
+      <c r="M4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="87" t="s">
+      <c r="N4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="29" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="84"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
@@ -1686,7 +1674,7 @@
         <f>M6*4000</f>
         <v>0</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="23">
         <f>SUM(F6,J6,L6,N6)</f>
         <v>18000</v>
       </c>
@@ -1695,11 +1683,11 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1732,7 +1720,7 @@
         <f t="shared" ref="N7:N16" si="2">M7*4000</f>
         <v>8000</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="23">
         <f>SUM(F7,J7,L7,N7)</f>
         <v>16000</v>
       </c>
@@ -1741,11 +1729,11 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
@@ -1778,7 +1766,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="23">
         <f t="shared" ref="O8:O17" si="4">SUM(F8,J8,L8,N8)</f>
         <v>8400</v>
       </c>
@@ -1787,11 +1775,11 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
@@ -1824,7 +1812,7 @@
         <f>M9*4000</f>
         <v>4000</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="23">
         <f>SUM(F9,J9,L9,N9)</f>
         <v>25700</v>
       </c>
@@ -1833,11 +1821,11 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
@@ -1870,7 +1858,7 @@
         <f>M10*4000</f>
         <v>0</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10" s="23">
         <f>SUM(F10,J10,L10,N10)</f>
         <v>13500</v>
       </c>
@@ -1879,11 +1867,11 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
@@ -1916,7 +1904,7 @@
         <f>M11*4000</f>
         <v>0</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11" s="23">
         <f>SUM(F11,J11,L11,N11)</f>
         <v>25100</v>
       </c>
@@ -1925,11 +1913,11 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
@@ -1955,14 +1943,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="29">
         <v>0</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" ref="N12:N13" si="7">M12*4000</f>
         <v>0</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12" s="23">
         <f t="shared" ref="O12:O13" si="8">SUM(F12,J12,L12,N12)</f>
         <v>5000</v>
       </c>
@@ -1971,11 +1959,11 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
@@ -2001,14 +1989,14 @@
         <f t="shared" ref="L13" si="9">K13*200</f>
         <v>2600</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="29">
         <v>3</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="7"/>
         <v>12000</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13" s="23">
         <f t="shared" si="8"/>
         <v>19600</v>
       </c>
@@ -2017,11 +2005,11 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
@@ -2047,14 +2035,14 @@
         <f t="shared" ref="L14:L15" si="11">K14*200</f>
         <v>4400</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="29">
         <v>0</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N15" si="12">M14*4000</f>
         <v>0</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="23">
         <f t="shared" ref="O14:O15" si="13">SUM(F14,J14,L14,N14)</f>
         <v>17900</v>
       </c>
@@ -2063,11 +2051,11 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
@@ -2093,14 +2081,14 @@
         <f t="shared" si="11"/>
         <v>1200</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="29">
         <v>1</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="12"/>
         <v>4000</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="23">
         <f t="shared" si="13"/>
         <v>13700</v>
       </c>
@@ -2109,11 +2097,11 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
@@ -2139,14 +2127,14 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="29">
         <v>0</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16" s="23">
         <f t="shared" si="4"/>
         <v>8100</v>
       </c>
@@ -2155,193 +2143,193 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32">
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30">
         <v>5000</v>
       </c>
-      <c r="G17" s="33">
-        <v>24</v>
-      </c>
-      <c r="H17" s="31">
-        <v>29</v>
-      </c>
-      <c r="I17" s="31">
+      <c r="G17" s="31">
+        <v>26</v>
+      </c>
+      <c r="H17" s="29">
+        <v>31</v>
+      </c>
+      <c r="I17" s="29">
         <f t="shared" si="3"/>
-        <v>53</v>
-      </c>
-      <c r="J17" s="34">
+        <v>57</v>
+      </c>
+      <c r="J17" s="32">
         <f t="shared" si="6"/>
-        <v>26500</v>
-      </c>
-      <c r="K17" s="33">
+        <v>28500</v>
+      </c>
+      <c r="K17" s="31">
         <v>17</v>
       </c>
       <c r="L17" s="6">
         <f>K17*200</f>
         <v>3400</v>
       </c>
-      <c r="M17" s="52">
+      <c r="M17" s="50">
         <v>8</v>
       </c>
       <c r="N17" s="6">
         <f>M17*4000</f>
         <v>32000</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17" s="23">
         <f t="shared" si="4"/>
-        <v>66900</v>
+        <v>68900</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="78" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="35">
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K18" s="35"/>
+      <c r="K18" s="33"/>
       <c r="L18" s="7"/>
       <c r="M18" s="2"/>
       <c r="N18" s="7"/>
-      <c r="O18" s="26"/>
+      <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38">
         <f>SUM(F6:F18)</f>
         <v>60000</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="39">
         <f>SUM(G6:G18)</f>
-        <v>80</v>
-      </c>
-      <c r="H19" s="41">
+        <v>82</v>
+      </c>
+      <c r="H19" s="39">
         <f>SUM(H6:H18)</f>
-        <v>97</v>
-      </c>
-      <c r="I19" s="41">
+        <v>99</v>
+      </c>
+      <c r="I19" s="39">
         <f>SUM(G19:H19)</f>
-        <v>177</v>
-      </c>
-      <c r="J19" s="42">
+        <v>181</v>
+      </c>
+      <c r="J19" s="40">
         <f t="shared" ref="J19:O19" si="14">SUM(J6:J18)</f>
-        <v>88500</v>
-      </c>
-      <c r="K19" s="41">
+        <v>90500</v>
+      </c>
+      <c r="K19" s="39">
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="90">
         <f t="shared" si="14"/>
         <v>29400</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="39">
         <f>SUM(M6:M18)</f>
         <v>15</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="90">
         <f t="shared" si="14"/>
         <v>60000</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="90">
         <f t="shared" si="14"/>
-        <v>237900</v>
+        <v>239900</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41">
         <v>4</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="42">
         <v>4</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="43">
         <f>I20*700</f>
         <v>2800</v>
       </c>
-      <c r="K20" s="46"/>
+      <c r="K20" s="44"/>
       <c r="L20" s="13"/>
       <c r="M20" s="5"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="24" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
+    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="47">
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="45">
         <f>G19*500</f>
-        <v>40000</v>
-      </c>
-      <c r="H21" s="47">
+        <v>41000</v>
+      </c>
+      <c r="H21" s="45">
         <f>H19*500+2800</f>
-        <v>51300</v>
-      </c>
-      <c r="I21" s="53">
+        <v>52300</v>
+      </c>
+      <c r="I21" s="51">
         <f>SUM(I19:I20)</f>
-        <v>181</v>
-      </c>
-      <c r="J21" s="49">
+        <v>185</v>
+      </c>
+      <c r="J21" s="47">
         <f>SUM(J19:J20)</f>
-        <v>91300</v>
-      </c>
-      <c r="K21" s="50"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+        <v>93300</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="51">
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="49">
         <v>16</v>
       </c>
       <c r="L22" s="12"/>
@@ -2350,37 +2338,37 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="27"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="A24" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
         <v>163</v>
@@ -2393,13 +2381,17 @@
     <row r="25" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2413,17 +2405,13 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">代金確認書!$A$1:$O$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -301,13 +301,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1075,96 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,9 +1180,6 @@
     <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1104,93 +1191,6 @@
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,7 +1506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -1523,7 +1523,7 @@
     <col min="15" max="15" width="11.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1559,7 +1559,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1575,73 +1575,73 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="65" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="74"/>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="70" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="71"/>
-      <c r="I4" s="58" t="s">
+      <c r="I4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="56" t="s">
+      <c r="N4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="57"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="53"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="83"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
@@ -1679,15 +1679,15 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1725,15 +1725,15 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
@@ -1771,15 +1771,15 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
@@ -1817,15 +1817,15 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
@@ -1863,15 +1863,15 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
@@ -1909,15 +1909,15 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
@@ -1955,15 +1955,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
@@ -2001,15 +2001,15 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
@@ -2047,15 +2047,15 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
@@ -2093,15 +2093,15 @@
         <v>13700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
@@ -2139,15 +2139,15 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30">
         <v>5000</v>
@@ -2185,24 +2185,28 @@
         <v>68900</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="G18" s="35">
+        <v>2</v>
+      </c>
+      <c r="H18" s="35">
+        <v>2</v>
+      </c>
       <c r="I18" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J18" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="7"/>
@@ -2210,13 +2214,13 @@
       <c r="N18" s="7"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85" t="s">
+    <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
         <f>SUM(F6:F18)</f>
@@ -2224,25 +2228,25 @@
       </c>
       <c r="G19" s="39">
         <f>SUM(G6:G18)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="39">
         <f>SUM(H6:H18)</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I19" s="39">
         <f>SUM(G19:H19)</f>
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J19" s="40">
         <f t="shared" ref="J19:O19" si="14">SUM(J6:J18)</f>
-        <v>90500</v>
+        <v>92500</v>
       </c>
       <c r="K19" s="39">
         <f t="shared" si="14"/>
         <v>147</v>
       </c>
-      <c r="L19" s="90">
+      <c r="L19" s="52">
         <f t="shared" si="14"/>
         <v>29400</v>
       </c>
@@ -2250,24 +2254,24 @@
         <f>SUM(M6:M18)</f>
         <v>15</v>
       </c>
-      <c r="N19" s="90">
+      <c r="N19" s="52">
         <f t="shared" si="14"/>
         <v>60000</v>
       </c>
-      <c r="O19" s="90">
+      <c r="O19" s="52">
         <f t="shared" si="14"/>
         <v>239900</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+    <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41">
         <v>4</v>
@@ -2285,30 +2289,30 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="88" t="s">
+    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1">
+      <c r="A21" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
       <c r="G21" s="45">
         <f>G19*500</f>
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="H21" s="45">
         <f>H19*500+2800</f>
-        <v>52300</v>
+        <v>53300</v>
       </c>
       <c r="I21" s="51">
         <f>SUM(I19:I20)</f>
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J21" s="47">
         <f>SUM(J19:J20)</f>
-        <v>93300</v>
+        <v>95300</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="21"/>
@@ -2316,19 +2320,19 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="76" t="s">
+    <row r="22" spans="1:15" ht="14.25" thickTop="1">
+      <c r="A22" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="49">
         <v>16</v>
       </c>
@@ -2337,38 +2341,38 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="82" t="s">
+    <row r="23" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A23" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="84"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="25"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
+    <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A24" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
         <v>163</v>
@@ -2378,20 +2382,16 @@
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:15" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2405,13 +2405,17 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">代金確認書!$A$1:$O$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -227,16 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パンフ各チーム（2部×8チーム）</t>
-    <rPh sb="3" eb="4">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20日(東雲）</t>
     <rPh sb="2" eb="3">
       <t>ニチ</t>
@@ -295,19 +285,29 @@
   </si>
   <si>
     <t>半田JSCミニバスケットボール部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンフ各チーム（2部×12チーム）</t>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,119 +1078,119 @@
     <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1506,7 +1506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -1523,7 +1523,7 @@
     <col min="15" max="15" width="11.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="1:15" ht="17.25" customHeight="1">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1559,7 +1559,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1575,73 +1575,73 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="80" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="67"/>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="53" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="76"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="83"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="54"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="B6" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
@@ -1679,15 +1679,15 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="B7" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1725,15 +1725,15 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="B8" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
@@ -1771,15 +1771,15 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
@@ -1817,15 +1817,15 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="B10" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
@@ -1863,15 +1863,15 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="B11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
@@ -1909,15 +1909,15 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
@@ -1955,15 +1955,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="B13" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
@@ -2001,15 +2001,15 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="B14" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
@@ -2047,15 +2047,15 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="B15" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
@@ -2093,15 +2093,15 @@
         <v>13700</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
@@ -2139,15 +2139,15 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30">
         <v>5000</v>
@@ -2185,13 +2185,13 @@
         <v>68900</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" thickBot="1">
+    <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35">
@@ -2214,13 +2214,13 @@
       <c r="N18" s="7"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A19" s="65" t="s">
+    <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
         <f>SUM(F6:F18)</f>
@@ -2263,15 +2263,15 @@
         <v>239900</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41">
         <v>4</v>
@@ -2289,13 +2289,13 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A21" s="68" t="s">
+    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
       <c r="G21" s="45">
@@ -2320,78 +2320,82 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" thickTop="1">
-      <c r="A22" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+    <row r="22" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
       <c r="K22" s="49">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L22" s="12"/>
       <c r="M22" s="4"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" thickBot="1">
-      <c r="A23" s="62" t="s">
+    <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
       <c r="K23" s="25"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A24" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+    <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="11"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" thickTop="1"/>
+    <row r="25" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2405,17 +2409,13 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\シースリーカップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,8 +17,33 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">代金確認書!$A$1:$O$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>owner</author>
+  </authors>
+  <commentList>
+    <comment ref="K15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>2019/7/12
+6⇒5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -301,13 +326,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +461,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1078,6 +1110,93 @@
     <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,9 +1212,6 @@
     <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1107,90 +1223,6 @@
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1501,12 +1533,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -1523,7 +1557,7 @@
     <col min="15" max="15" width="11.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -1541,7 +1575,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="19"/>
     </row>
-    <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="17.25" customHeight="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1559,7 +1593,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1575,73 +1609,73 @@
       <c r="N3"/>
       <c r="O3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="66" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="74"/>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="58"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="54"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="83"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
@@ -1679,15 +1713,15 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1725,15 +1759,15 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
@@ -1771,15 +1805,15 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
@@ -1817,15 +1851,15 @@
         <v>25700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
@@ -1863,15 +1897,15 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
@@ -1909,15 +1943,15 @@
         <v>25100</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
@@ -1955,15 +1989,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
@@ -2001,15 +2035,15 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
@@ -2047,15 +2081,15 @@
         <v>17900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
@@ -2075,11 +2109,11 @@
         <v>3500</v>
       </c>
       <c r="K15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="11"/>
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="29">
         <v>1</v>
@@ -2090,18 +2124,18 @@
       </c>
       <c r="O15" s="23">
         <f t="shared" si="13"/>
-        <v>13700</v>
+        <v>13500</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
@@ -2139,15 +2173,15 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30">
         <v>5000</v>
@@ -2185,13 +2219,13 @@
         <v>68900</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35">
@@ -2214,13 +2248,13 @@
       <c r="N18" s="7"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86" t="s">
+    <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
         <f>SUM(F6:F18)</f>
@@ -2244,11 +2278,11 @@
       </c>
       <c r="K19" s="39">
         <f t="shared" si="14"/>
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L19" s="52">
         <f t="shared" si="14"/>
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="M19" s="39">
         <f>SUM(M6:M18)</f>
@@ -2260,18 +2294,18 @@
       </c>
       <c r="O19" s="52">
         <f t="shared" si="14"/>
-        <v>239900</v>
+        <v>239700</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+    <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41">
         <v>4</v>
@@ -2289,13 +2323,13 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1">
+      <c r="A21" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
       <c r="G21" s="45">
@@ -2320,19 +2354,19 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="77" t="s">
+    <row r="22" spans="1:15" ht="14.25" thickTop="1">
+      <c r="A22" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="49">
         <v>24</v>
       </c>
@@ -2341,61 +2375,57 @@
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="83" t="s">
+    <row r="23" spans="1:15" ht="14.25" thickBot="1">
+      <c r="A23" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="25"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
+    <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1">
+      <c r="A24" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="11"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
     </row>
-    <row r="25" spans="1:15" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:15" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2409,16 +2439,21 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="110" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,17 +17,33 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">代金確認書!$A$1:$O$27</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>山田　由貴</author>
     <author>owner</author>
   </authors>
   <commentList>
-    <comment ref="K15" authorId="0" shapeId="0">
+    <comment ref="M13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>2019/7/16
+3→6</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +54,7 @@
             <charset val="128"/>
           </rPr>
           <t>2019/7/12
-6⇒5</t>
+6→5</t>
         </r>
       </text>
     </comment>
@@ -326,13 +342,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +484,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1110,119 +1133,119 @@
     <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1536,9 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1610,72 +1631,72 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="76"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="83"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
@@ -1717,11 +1738,11 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1763,11 +1784,11 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
@@ -1809,11 +1830,11 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
@@ -1855,11 +1876,11 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
@@ -1901,11 +1922,11 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
@@ -1947,11 +1968,11 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
@@ -1993,11 +2014,11 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
@@ -2024,26 +2045,26 @@
         <v>2600</v>
       </c>
       <c r="M13" s="29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O13" s="23">
         <f t="shared" si="8"/>
-        <v>19600</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
@@ -2085,11 +2106,11 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
@@ -2131,11 +2152,11 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
@@ -2177,11 +2198,11 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30">
         <v>5000</v>
@@ -2221,11 +2242,11 @@
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35">
@@ -2249,12 +2270,12 @@
       <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
         <f>SUM(F6:F18)</f>
@@ -2286,26 +2307,26 @@
       </c>
       <c r="M19" s="39">
         <f>SUM(M6:M18)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N19" s="52">
         <f t="shared" si="14"/>
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="O19" s="52">
         <f t="shared" si="14"/>
-        <v>239700</v>
+        <v>251700</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41">
         <v>4</v>
@@ -2324,12 +2345,12 @@
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
       <c r="G21" s="45">
@@ -2355,18 +2376,18 @@
       <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" thickTop="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
       <c r="K22" s="49">
         <v>24</v>
       </c>
@@ -2376,18 +2397,18 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" thickBot="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
       <c r="K23" s="25"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
@@ -2395,18 +2416,18 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A24" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
         <v>170</v>
@@ -2419,13 +2440,17 @@
     <row r="25" spans="1:15" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2439,17 +2464,13 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -28,6 +28,36 @@
     <author>owner</author>
   </authors>
   <commentList>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>2019/7/18
+12→13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>2019/7/18
+13→14</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1133,6 +1163,93 @@
     <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1148,9 +1265,6 @@
     <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,90 +1276,6 @@
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1631,72 +1661,72 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="55" t="s">
+      <c r="K4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="53" t="s">
+      <c r="O4" s="82" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="54"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="83"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
@@ -1738,11 +1768,11 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1784,11 +1814,11 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
@@ -1830,28 +1860,28 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
       </c>
       <c r="G9" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1">
         <f>SUM(G9:H9)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="K9" s="1">
         <v>21</v>
@@ -1869,18 +1899,18 @@
       </c>
       <c r="O9" s="23">
         <f>SUM(F9,J9,L9,N9)</f>
-        <v>25700</v>
+        <v>26700</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
@@ -1922,11 +1952,11 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
@@ -1968,11 +1998,11 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
@@ -2014,11 +2044,11 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
@@ -2060,11 +2090,11 @@
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
@@ -2106,11 +2136,11 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
@@ -2152,11 +2182,11 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
@@ -2198,11 +2228,11 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30">
         <v>5000</v>
@@ -2242,11 +2272,11 @@
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35">
@@ -2270,12 +2300,12 @@
       <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A19" s="86" t="s">
+      <c r="A19" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
         <f>SUM(F6:F18)</f>
@@ -2283,19 +2313,19 @@
       </c>
       <c r="G19" s="39">
         <f>SUM(G6:G18)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" s="39">
         <f>SUM(H6:H18)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I19" s="39">
         <f>SUM(G19:H19)</f>
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J19" s="40">
         <f t="shared" ref="J19:O19" si="14">SUM(J6:J18)</f>
-        <v>92500</v>
+        <v>93500</v>
       </c>
       <c r="K19" s="39">
         <f t="shared" si="14"/>
@@ -2315,18 +2345,18 @@
       </c>
       <c r="O19" s="52">
         <f t="shared" si="14"/>
-        <v>251700</v>
+        <v>252700</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41">
         <v>4</v>
@@ -2345,29 +2375,29 @@
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
       <c r="G21" s="45">
         <f>G19*500</f>
-        <v>42000</v>
+        <v>42500</v>
       </c>
       <c r="H21" s="45">
         <f>H19*500+2800</f>
-        <v>53300</v>
+        <v>53800</v>
       </c>
       <c r="I21" s="51">
         <f>SUM(I19:I20)</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J21" s="47">
         <f>SUM(J19:J20)</f>
-        <v>95300</v>
+        <v>96300</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="21"/>
@@ -2376,18 +2406,18 @@
       <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" thickTop="1">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
       <c r="K22" s="49">
         <v>24</v>
       </c>
@@ -2397,18 +2427,18 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" thickBot="1">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="25"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
@@ -2416,18 +2446,18 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A24" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
+      <c r="A24" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
         <v>170</v>
@@ -2440,17 +2470,13 @@
     <row r="25" spans="1:15" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2464,13 +2490,17 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
+++ b/平成31年度/シースリーカップ/c3cup 代金確認書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\シースリーカップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">代金確認書!$A$1:$O$27</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -69,7 +69,9 @@
             <charset val="128"/>
           </rPr>
           <t>2019/7/16
-3→6</t>
+3→6
+2019/7/19
+6→7</t>
         </r>
       </text>
     </comment>
@@ -372,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
@@ -1163,119 +1165,119 @@
     <xf numFmtId="5" fontId="15" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="5" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="5" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="13" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1661,72 +1663,72 @@
       <c r="O3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="87" t="s">
+      <c r="H4" s="72"/>
+      <c r="I4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="89" t="s">
+      <c r="J4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="76"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="27" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="83"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="1"/>
       <c r="F6" s="9">
         <v>5000</v>
@@ -1768,11 +1770,11 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="1"/>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1814,11 +1816,11 @@
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="1"/>
       <c r="F8" s="9">
         <v>5000</v>
@@ -1860,11 +1862,11 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="1"/>
       <c r="F9" s="9">
         <v>5000</v>
@@ -1906,11 +1908,11 @@
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="1"/>
       <c r="F10" s="9">
         <v>5000</v>
@@ -1952,11 +1954,11 @@
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="1"/>
       <c r="F11" s="9">
         <v>5000</v>
@@ -1998,11 +2000,11 @@
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="1"/>
       <c r="F12" s="9">
         <v>5000</v>
@@ -2044,11 +2046,11 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="1"/>
       <c r="F13" s="9">
         <v>5000</v>
@@ -2075,26 +2077,26 @@
         <v>2600</v>
       </c>
       <c r="M13" s="29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="7"/>
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O13" s="23">
         <f t="shared" si="8"/>
-        <v>31600</v>
+        <v>35600</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9">
         <v>5000</v>
@@ -2136,11 +2138,11 @@
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="1"/>
       <c r="F15" s="9">
         <v>5000</v>
@@ -2182,11 +2184,11 @@
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="1"/>
       <c r="F16" s="9">
         <v>5000</v>
@@ -2228,11 +2230,11 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30">
         <v>5000</v>
@@ -2272,11 +2274,11 @@
     </row>
     <row r="18" spans="1:15" ht="14.25" thickBot="1">
       <c r="A18" s="33"/>
-      <c r="B18" s="77" t="s">
+      <c r="B18" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="33"/>
       <c r="F18" s="34"/>
       <c r="G18" s="35">
@@ -2300,12 +2302,12 @@
       <c r="O18" s="24"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38">
         <f>SUM(F6:F18)</f>
@@ -2337,26 +2339,26 @@
       </c>
       <c r="M19" s="39">
         <f>SUM(M6:M18)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N19" s="52">
         <f t="shared" si="14"/>
-        <v>72000</v>
+        <v>76000</v>
       </c>
       <c r="O19" s="52">
         <f t="shared" si="14"/>
-        <v>252700</v>
+        <v>256700</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41">
         <v>4</v>
@@ -2375,12 +2377,12 @@
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="1:15" s="22" customFormat="1" ht="15" thickTop="1" thickBot="1">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
       <c r="G21" s="45">
@@ -2406,18 +2408,18 @@
       <c r="O21" s="21"/>
     </row>
     <row r="22" spans="1:15" ht="14.25" thickTop="1">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
       <c r="K22" s="49">
         <v>24</v>
       </c>
@@ -2427,18 +2429,18 @@
       <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" ht="14.25" thickBot="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
       <c r="K23" s="25"/>
       <c r="L23" s="14"/>
       <c r="M23" s="10"/>
@@ -2446,18 +2448,18 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="15" thickTop="1" thickBot="1">
-      <c r="A24" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="11">
         <f>K19+K22+K23</f>
         <v>170</v>
@@ -2470,13 +2472,17 @@
     <row r="25" spans="1:15" ht="14.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -2490,17 +2496,13 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.55000000000000004" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
